--- a/data/3_professional/reviewing.xlsx
+++ b/data/3_professional/reviewing.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\biobib\data\3_professional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA6D74-3D4A-4580-8CF1-9F5083EFF25A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC3A7F1-FFA9-4BF0-B8C8-64C1048FEB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="19930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reviewing" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +159,12 @@
   </si>
   <si>
     <t>Journal of the Association of Environmental and Resource Economists</t>
+  </si>
+  <si>
+    <t>Trends in Ecology and Evolution</t>
+  </si>
+  <si>
+    <t>Global Land Programme Open Science Meeting</t>
   </si>
 </sst>
 </file>
@@ -690,9 +709,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -730,7 +749,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -836,7 +855,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -978,7 +997,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -986,13 +1005,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1864,6 +1890,159 @@
         <v>4</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2023</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2023</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2023</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2023</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2023</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2024</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2024</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60">
+        <v>36</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
